--- a/biology/Botanique/Torgiano_rosso_riserva/Torgiano_rosso_riserva.xlsx
+++ b/biology/Botanique/Torgiano_rosso_riserva/Torgiano_rosso_riserva.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Torgiano rosso riserva   est un vin rouge DOCG d'Italie produit sur les coteaux  de Torgiano, ville de  la province de Pérouse en Ombrie.
@@ -512,7 +524,9 @@
           <t>Région de production</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Torgiano rosso riserva est un vin DOCG dont la production est consentie uniquement sur le territoire de la commune de Torgiano ville située au sud-est de Pérouse où la culture de la vigne remonte à la période étrusque.
 La zone de production occupe un nombre réduit de collines qui s'élèvent à la confluence du fleuve Chiascio avec le Tibre.
@@ -544,7 +558,9 @@
           <t>Caracteristiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Torgiano rosso riserva DOCG implique l'utilisation du cépage Sangiovese (minimum 70 %) qui peut être complétée avec des cépages rouges récoltés dans la province de Pérouse. La période de vieillissement ne peut être inférieure à trois ans dont au moins six mois en bouteille. La période démarrant au 1ernovembre de l'année de production du raisin. 
 </t>
@@ -575,7 +591,9 @@
           <t>Caractéristiques organoleptiques</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Couleur : Rouge rubis brillant.
 Parfum : vineux et delicat.
@@ -607,7 +625,9 @@
           <t>Consommation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Torgiano rosso riserva est considéré comme un vin de tout repas. Il accompagne idéalement les pastasciutte, volaille, rôtis et gibier. La température de dégustation se situe entre  18 et 20 °C.
 </t>
